--- a/test_cases/PE-16/TC-11-Apellido.xlsx
+++ b/test_cases/PE-16/TC-11-Apellido.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ramiro\Desktop\casos de prueba\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ramiro\Documents\GitHub\TestingAplicaciones-Alvinylasardillas-TPO\test_cases\PE-16\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D07E46-4273-46A3-9893-EBA908890111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBDCDCC0-C4A0-421C-BBC1-8C3B7A5DBCC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,9 +78,6 @@
     <t xml:space="preserve">Mail validation </t>
   </si>
   <si>
-    <t>Apellido = Gimenez</t>
-  </si>
-  <si>
     <t>Mail = jaunGim@gmail.com</t>
   </si>
   <si>
@@ -105,9 +102,6 @@
     <t>User Stories covered</t>
   </si>
   <si>
-    <t>US-1, US-3</t>
-  </si>
-  <si>
     <t>Automation Status</t>
   </si>
   <si>
@@ -162,12 +156,6 @@
     <t>Direccion = Collins</t>
   </si>
   <si>
-    <t xml:space="preserve">Apellido = </t>
-  </si>
-  <si>
-    <t>Apellido = Gimenez24.'[</t>
-  </si>
-  <si>
     <t>Verificacion de Apellido</t>
   </si>
   <si>
@@ -187,6 +175,18 @@
   </si>
   <si>
     <t>Ciudad = Miami</t>
+  </si>
+  <si>
+    <t>PE-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apellido1 = </t>
+  </si>
+  <si>
+    <t>Apellido2 = Gimenez24.'[</t>
+  </si>
+  <si>
+    <t>Apellido3 = Gimenez</t>
   </si>
 </sst>
 </file>
@@ -571,7 +571,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -640,12 +640,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -679,12 +673,54 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -716,55 +752,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1051,35 +1048,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="61" t="s">
+      <c r="B1" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" s="40"/>
+      <c r="D1" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="52"/>
     </row>
     <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="37" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -1090,7 +1087,7 @@
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="38" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="3"/>
@@ -1151,7 +1148,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="21" x14ac:dyDescent="0.35">
@@ -1163,7 +1160,7 @@
         <v>3</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="22" x14ac:dyDescent="0.35">
@@ -1175,7 +1172,7 @@
         <v>4</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="22" x14ac:dyDescent="0.35">
@@ -1183,7 +1180,7 @@
         <v>5</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="22" x14ac:dyDescent="0.35">
@@ -1191,7 +1188,7 @@
         <v>6</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
@@ -1199,7 +1196,7 @@
         <v>7</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.35">
@@ -1207,7 +1204,7 @@
         <v>8</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="22" x14ac:dyDescent="0.35">
@@ -1215,15 +1212,15 @@
         <v>9</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D17" s="18">
         <v>10</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.35">
@@ -1231,251 +1228,242 @@
         <v>11</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="D19" s="18">
         <v>12</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D20" s="21"/>
-      <c r="E20" s="35"/>
+      <c r="E20" s="33"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D21" s="21"/>
       <c r="E21" s="22"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="45"/>
+      <c r="A23" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="57"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="42"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="48"/>
+      <c r="A24" s="54"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="60"/>
     </row>
     <row r="25" spans="1:5" ht="24" x14ac:dyDescent="0.35">
       <c r="A25" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="63" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="64"/>
+      <c r="D25" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="E25" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="25"/>
-      <c r="D25" s="23" t="s">
+    </row>
+    <row r="27" spans="1:5" ht="26" x14ac:dyDescent="0.35">
+      <c r="A27" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="26" t="s">
+      <c r="B27" s="26" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="26" x14ac:dyDescent="0.35">
-      <c r="A27" s="27" t="s">
+      <c r="C27" s="27"/>
+      <c r="D27" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="28" t="s">
+      <c r="E27" s="29"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="30">
+        <v>1</v>
+      </c>
+      <c r="B28" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="42"/>
+      <c r="D28" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="29"/>
-      <c r="D27" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="E27" s="31"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="32">
-        <v>1</v>
-      </c>
-      <c r="B28" s="37" t="s">
+      <c r="E28" s="42"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="30">
+        <v>2</v>
+      </c>
+      <c r="B29" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="48"/>
+      <c r="D29" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="42"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="30">
+        <v>3</v>
+      </c>
+      <c r="B30" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="42"/>
+      <c r="D30" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="42"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="30">
+        <v>4</v>
+      </c>
+      <c r="B31" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="42"/>
+      <c r="D31" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="42"/>
+    </row>
+    <row r="32" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="30">
+        <v>5</v>
+      </c>
+      <c r="B32" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="62"/>
+      <c r="D32" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="42"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="30">
+        <v>6</v>
+      </c>
+      <c r="B33" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="38"/>
-      <c r="D28" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28" s="38"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="32">
-        <v>2</v>
-      </c>
-      <c r="B29" s="49" t="s">
+      <c r="C33" s="42"/>
+      <c r="D33" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="42"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="31">
+        <v>7</v>
+      </c>
+      <c r="B34" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="50"/>
-      <c r="D29" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="E29" s="38"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="32">
-        <v>3</v>
-      </c>
-      <c r="B30" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" s="38"/>
-      <c r="D30" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="E30" s="38"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="32">
-        <v>4</v>
-      </c>
-      <c r="B31" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" s="38"/>
-      <c r="D31" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="E31" s="38"/>
-    </row>
-    <row r="32" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="32">
-        <v>5</v>
-      </c>
-      <c r="B32" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" s="52"/>
-      <c r="D32" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="E32" s="38"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="32">
-        <v>6</v>
-      </c>
-      <c r="B33" s="37" t="s">
+      <c r="C34" s="48"/>
+      <c r="D34" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="42"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="31">
+        <v>8</v>
+      </c>
+      <c r="B35" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="38"/>
-      <c r="D33" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="E33" s="38"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="33">
-        <v>7</v>
-      </c>
-      <c r="B34" s="49" t="s">
+      <c r="C35" s="48"/>
+      <c r="D35" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" s="42"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="31">
+        <v>9</v>
+      </c>
+      <c r="B36" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="50"/>
-      <c r="D34" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="E34" s="38"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="33">
-        <v>8</v>
-      </c>
-      <c r="B35" s="49" t="s">
+      <c r="C36" s="48"/>
+      <c r="D36" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" s="42"/>
+    </row>
+    <row r="37" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="31">
+        <v>10</v>
+      </c>
+      <c r="B37" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="42"/>
+      <c r="D37" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" s="44"/>
+    </row>
+    <row r="38" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="32">
+        <v>11</v>
+      </c>
+      <c r="B38" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="42"/>
+      <c r="D38" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="E38" s="44"/>
+    </row>
+    <row r="39" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="31">
+        <v>12</v>
+      </c>
+      <c r="B39" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="42"/>
+      <c r="D39" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="50"/>
-      <c r="D35" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="E35" s="38"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="33">
-        <v>9</v>
-      </c>
-      <c r="B36" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="C36" s="50"/>
-      <c r="D36" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="E36" s="38"/>
-    </row>
-    <row r="37" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="33">
-        <v>10</v>
-      </c>
-      <c r="B37" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="C37" s="38"/>
-      <c r="D37" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="E37" s="57"/>
-    </row>
-    <row r="38" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="34">
-        <v>11</v>
-      </c>
-      <c r="B38" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="C38" s="38"/>
-      <c r="D38" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="E38" s="59"/>
-    </row>
-    <row r="39" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="33">
-        <v>12</v>
-      </c>
-      <c r="B39" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="C39" s="38"/>
-      <c r="D39" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="E39" s="53"/>
+      <c r="E39" s="50"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="36"/>
-      <c r="B40" s="54"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="55"/>
-      <c r="E40" s="55"/>
+      <c r="A40" s="34"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
+  <mergeCells count="30">
     <mergeCell ref="D37:E37"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B25:C25"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A23:A24"/>
@@ -1485,11 +1473,21 @@
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B38:C38"/>
     <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E9" r:id="rId1" display="Mail=jaunGim@gmail.com" xr:uid="{0B8D4131-AF42-4B65-838B-497190FE622B}"/>
